--- a/config_sig_TEST.xlsx
+++ b/config_sig_TEST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenichi\Dropbox\gitdir\check_Yometenai_Singo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE6FF5C-EBF6-49B7-8843-A6DA1961FEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CD90AD-E0CC-4CD4-AFC3-B8B154E888F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <author>kenichi</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{BAD9560A-77A8-4466-9024-628138EBBCA5}">
       <text>
         <r>
           <rPr>
@@ -42,7 +42,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{2E098F3E-64EC-4916-AF58-0DB1B625EEC5}">
       <text>
         <r>
           <rPr>
@@ -64,71 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>srv</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>sname</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>sid</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>graph</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>linestyle</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>color</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>linewidth</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ax</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>y_range</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>fcolor</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>label</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>rave</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>bit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>calc-sigma</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>sound</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>marker</t>
-    <phoneticPr fontId="2"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5013&amp;sub_grp_id=5375</t>
     <phoneticPr fontId="2"/>
@@ -143,6 +79,22 @@
   </si>
   <si>
     <t>scss_mon_csr</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>on</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -150,7 +102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -166,11 +118,6 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -239,15 +186,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -569,7 +515,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -581,69 +527,48 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="5" t="s">
-        <v>16</v>
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>18</v>
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/config_sig_TEST.xlsx
+++ b/config_sig_TEST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenichi\Dropbox\gitdir\check_Yometenai_Singo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CD90AD-E0CC-4CD4-AFC3-B8B154E888F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A8892E-7636-4A4D-8A2E-9EE60D0868AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5013&amp;sub_grp_id=5375</t>
     <phoneticPr fontId="2"/>
@@ -94,7 +94,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>on</t>
+    <t>off</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -515,7 +515,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -553,9 +553,7 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
